--- a/doc/ForC-EFDB_mapping/ForC_variables_mapping_for Valentyna.xlsx
+++ b/doc/ForC-EFDB_mapping/ForC_variables_mapping_for Valentyna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/IPCC-EFDB-integration/doc/ForC-EFDB_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{290FD67E-E401-7743-B521-CD720F77D0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EFDD1F2A-4C92-A74F-90A3-7CBA33802481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
@@ -2467,7 +2467,7 @@
   <dimension ref="A1:V160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
